--- a/assignment/module2/Instragram_Testcases.xlsx
+++ b/assignment/module2/Instragram_Testcases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f0a8cae45075979/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f0a8cae45075979/Desktop/Assigments/assignment/module2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{35BABE71-4E71-405C-B805-B7DAC8AEC7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED74651-9C00-498D-A864-BFCD6A00E9AE}"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -777,6 +775,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89D0EC2-7450-46E2-8F9A-1FCDD83A2EB7}">
   <dimension ref="A2:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
